--- a/ArticulosNoCurados.xlsx
+++ b/ArticulosNoCurados.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Yi-qi_Sep-2020\Articulos\Mosquitos\MosquitoReview\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3E82B7-66A4-48D8-9AD3-265381F5E74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Hoja2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$I$188</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjPiKAG1qniTjKSgTAYuPOUYI4sDA=="/>
@@ -17,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="872">
   <si>
     <t>PalabrasClave:</t>
   </si>
@@ -2633,129 +2644,47 @@
   </si>
   <si>
     <t>Anopheles (Kerteszia) cruzii has been implicated as the primary vector of human and simian malarias out of the Brazilian Amazon and specifically in the Atlantic Forest regions. The presence of asymptomatic human cases, parasite-positive wild monkeys and the similarity between the parasites infecting them support the discussion whether these infections can be considered as a zoonosis. Although many aspects of the biology of An. cruzii have already been addressed, studies conducted during outbreaks of malaria transmission, aiming at the analysis of blood feeding and infectivity, are missing in the Atlantic Forest. This study was conducted in the location of Palestina, Juquitiba, where annually the majority of autochthonous human cases are notified in the Atlantic Forest of the state of São Paulo. Peridomiciliary sites were selected for collection of mosquitoes in a perimeter of up to 100 m around the residences of human malaria cases. The mosquitoes were analyzed with the purpose of molecular identification of blood-meal sources and to examine the prevalence of Plasmodium. A total of 13,441 females of An. (Ker.) cruzii were collected. The minimum infection rate was calculated at 0.03% and 0.01%, respectively, for P. vivax and P. malariae and only human blood was detected in the blood-fed mosquitoes analyzed. This data reinforce the hypothesis that asymptomatic human carriers are the main source of anopheline infection in the peridomiciliary area, making the probability of zoonotic transmission less likely to happen. © 2014 Rev. Inst. Med. Trop. Sao Paulo. All rights reserved.</t>
-  </si>
-  <si>
-    <t>Instituto de Ecología A.C., Red de Ambiente y Sustentabilidad, Carretera antigua a Coatepec 351 El Haya, Xalapa, Veracruz  91070, Mexico; Instituto de Ecología A.C., Red de Biología y Conservación de Vertebrados, Carretera antigua a Coatepec 351 El Haya, Xalapa, Veracruz  91070, Mexico</t>
-  </si>
-  <si>
-    <t>Abella-Medrano, C.A., Instituto de Ecología A.C., Red de Ambiente y Sustentabilidad, Carretera antigua a Coatepec 351 El Haya, Xalapa, Veracruz  91070, Mexico, Instituto de Ecología A.C., Red de Biología y Conservación de Vertebrados, Carretera antigua a Coatepec 351 El Haya, Xalapa, Veracruz  91070, Mexico; Ibáñez-Bernal, S., Instituto de Ecología A.C., Red de Ambiente y Sustentabilidad, Carretera antigua a Coatepec 351 El Haya, Xalapa, Veracruz  91070, Mexico; Carbó-Ramírez, P., Instituto de Ecología A.C., Red de Biología y Conservación de Vertebrados, Carretera antigua a Coatepec 351 El Haya, Xalapa, Veracruz  91070, Mexico; Santiago-Alarcon, D., Instituto de Ecología A.C., Red de Biología y Conservación de Vertebrados, Carretera antigua a Coatepec 351 El Haya, Xalapa, Veracruz  91070, Mexico</t>
-  </si>
-  <si>
-    <t>Vector Borne Infectious Disease Unit, Laboratory of Applied Biology and Ecology (VBID-LABEA), Department of Animal Biology, Faculty of Science, University of Dschang, P. O. Box 067, Dschang, Cameroon; Laboratoire de Recherche sur le Paludisme, Organisation de Coordination Pour la Lutte Contre les Endémies en Afrique Centrale (OCEAC), B. P.288, Yaoundé, Cameroon; Faculty of Sciences, University of Yaoundé i, P.O. Box 337, Yaoundé, Cameroon; Department of Biological Sciences, Faculty of Medicine and Pharmaceutical Sciences, University of Douala, P.O. Box 24157, Douala, Cameroon; Vector Biology Liverpool School of Tropical Medicine, Pembroke Place, Liverpool, L3 5QA, United Kingdom; KEMRI-Wellcome Trust Research Programme, Centre for Geographic Medicine Research Coast, Kilifi, Kenya; KEMRI-Centre for Geographic Medicine Research Kilifi, Kilifi, Kenya; Pwani University Health and Research Institute, Pwani University, Kilifi, Kenya</t>
-  </si>
-  <si>
-    <t>Bamou, R., Vector Borne Infectious Disease Unit, Laboratory of Applied Biology and Ecology (VBID-LABEA), Department of Animal Biology, Faculty of Science, University of Dschang, P. O. Box 067, Dschang, Cameroon, Laboratoire de Recherche sur le Paludisme, Organisation de Coordination Pour la Lutte Contre les Endémies en Afrique Centrale (OCEAC), B. P.288, Yaoundé, Cameroon; Mbakop, L.R., Laboratoire de Recherche sur le Paludisme, Organisation de Coordination Pour la Lutte Contre les Endémies en Afrique Centrale (OCEAC), B. P.288, Yaoundé, Cameroon, Faculty of Sciences, University of Yaoundé i, P.O. Box 337, Yaoundé, Cameroon; Kopya, E., Laboratoire de Recherche sur le Paludisme, Organisation de Coordination Pour la Lutte Contre les Endémies en Afrique Centrale (OCEAC), B. P.288, Yaoundé, Cameroon, Faculty of Sciences, University of Yaoundé i, P.O. Box 337, Yaoundé, Cameroon; Ndo, C., Laboratoire de Recherche sur le Paludisme, Organisation de Coordination Pour la Lutte Contre les Endémies en Afrique Centrale (OCEAC), B. P.288, Yaoundé, Cameroon, Department of Biological Sciences, Faculty of Medicine and Pharmaceutical Sciences, University of Douala, P.O. Box 24157, Douala, Cameroon, Vector Biology Liverpool School of Tropical Medicine, Pembroke Place, Liverpool, L3 5QA, United Kingdom; Awono-Ambene, P., Laboratoire de Recherche sur le Paludisme, Organisation de Coordination Pour la Lutte Contre les Endémies en Afrique Centrale (OCEAC), B. P.288, Yaoundé, Cameroon; Tchuinkam, T., Vector Borne Infectious Disease Unit, Laboratory of Applied Biology and Ecology (VBID-LABEA), Department of Animal Biology, Faculty of Science, University of Dschang, P. O. Box 067, Dschang, Cameroon; Rono, M.K., KEMRI-Wellcome Trust Research Programme, Centre for Geographic Medicine Research Coast, Kilifi, Kenya, KEMRI-Centre for Geographic Medicine Research Kilifi, Kilifi, Kenya; Mwangangi, J., KEMRI-Centre for Geographic Medicine Research Kilifi, Kilifi, Kenya, Pwani University Health and Research Institute, Pwani University, Kilifi, Kenya; Antonio-Nkondjio, C., Laboratoire de Recherche sur le Paludisme, Organisation de Coordination Pour la Lutte Contre les Endémies en Afrique Centrale (OCEAC), B. P.288, Yaoundé, Cameroon, Vector Biology Liverpool School of Tropical Medicine, Pembroke Place, Liverpool, L3 5QA, United Kingdom</t>
-  </si>
-  <si>
-    <t>Institute of Biodiversity, Animal Health and Comparative Medicine, College of Medical, Veterinary and Life Sciences, University of Glasgow, Glasgow, G12 8QQ, United Kingdom; Department of Pathobiology and Medical Diagnostics, Faculty of Medicine and Health Sciences, Universiti Malaysia Sabah, Kota Kinabalu, Sabah, 88400, Malaysia; Faculty of Infectious and Tropical Diseases, London School of Hygiene and Tropical Medicine, London, WC1E 7HT, United Kingdom</t>
-  </si>
-  <si>
-    <t>Brown, R., Institute of Biodiversity, Animal Health and Comparative Medicine, College of Medical, Veterinary and Life Sciences, University of Glasgow, Glasgow, G12 8QQ, United Kingdom; Hing, C.T., Department of Pathobiology and Medical Diagnostics, Faculty of Medicine and Health Sciences, Universiti Malaysia Sabah, Kota Kinabalu, Sabah, 88400, Malaysia; Fornace, K., Faculty of Infectious and Tropical Diseases, London School of Hygiene and Tropical Medicine, London, WC1E 7HT, United Kingdom; Ferguson, H.M., Institute of Biodiversity, Animal Health and Comparative Medicine, College of Medical, Veterinary and Life Sciences, University of Glasgow, Glasgow, G12 8QQ, United Kingdom</t>
-  </si>
-  <si>
-    <t>Department of Environmental Studies, Emory University, Atlanta GA 30322, United States; Department of Entomology, Cornell University, Ithaca NY 14853, United States; Odum School of Ecology, University of Georgia, Athens GA 30602, United States; Department of Epidemiology, Mailman School of Public Health, Columbia University, New York NY 10032, United States</t>
-  </si>
-  <si>
-    <t>Chaves, L.F., Department of Environmental Studies, Emory University, Atlanta GA 30322, United States; Harrington, L.C., Department of Entomology, Cornell University, Ithaca NY 14853, United States; Keogh, C.L., Odum School of Ecology, University of Georgia, Athens GA 30602, United States; Nguyen, A.M., Department of Epidemiology, Mailman School of Public Health, Columbia University, New York NY 10032, United States; Kitron, U.D., Department of Environmental Studies, Emory University, Atlanta GA 30322, United States</t>
-  </si>
-  <si>
-    <t>Liverpool School of Tropical Medicine, Pembroke Place, Liverpool, L3 5QA, United Kingdom; CNM, Phnom Penh, Cambodia; Swiss Tropical and Public Health Institute, Socinstrasse 57, Basel, 4002, Switzerland; University of Basel, Basel, 4003, Switzerland; PAMVERC, P.O. Box 10, Muleba, Tanzania</t>
-  </si>
-  <si>
-    <t>Derek Charlwood, J., Liverpool School of Tropical Medicine, Pembroke Place, Liverpool, L3 5QA, United Kingdom, PAMVERC, P.O. Box 10, Muleba, Tanzania; Nenhep, S., CNM, Phnom Penh, Cambodia; Sovannaroth, S., CNM, Phnom Penh, Cambodia; Morgan, J.C., Liverpool School of Tropical Medicine, Pembroke Place, Liverpool, L3 5QA, United Kingdom; Hemingway, J., Liverpool School of Tropical Medicine, Pembroke Place, Liverpool, L3 5QA, United Kingdom; Chitnis, N., Swiss Tropical and Public Health Institute, Socinstrasse 57, Basel, 4002, Switzerland, University of Basel, Basel, 4003, Switzerland; Briët, O.J.T., Swiss Tropical and Public Health Institute, Socinstrasse 57, Basel, 4002, Switzerland, University of Basel, Basel, 4003, Switzerland</t>
-  </si>
-  <si>
-    <t>Cary Institute of Ecosystem Studies, Millbrook, NY  12545, United States; Monmouth County Division of Mosquito Control, Tick-Borne Disease Laboratory, New Brunswick, NJ  08901, United States; Center for Vector Biology, Entomology Department, Rutgers University, New Brunswick, NJ  08901, United States; Department of Environmental Science and Technology, University of Maryland, College Park, MD  20742, United States</t>
-  </si>
-  <si>
-    <t>Goodman, H., Cary Institute of Ecosystem Studies, Millbrook, NY  12545, United States; Egizi, A., Monmouth County Division of Mosquito Control, Tick-Borne Disease Laboratory, New Brunswick, NJ  08901, United States; Fonseca, D.M., Center for Vector Biology, Entomology Department, Rutgers University, New Brunswick, NJ  08901, United States; Leisnham, P.T., Department of Environmental Science and Technology, University of Maryland, College Park, MD  20742, United States; Ladeau, S.L., Cary Institute of Ecosystem Studies, Millbrook, NY  12545, United States</t>
-  </si>
-  <si>
-    <t>Department of Microbiology, Immunology, and Pathology, Colorado State University, Fort Collins, CO, United States; Division of Computational Biomedicine, Boston University School of Medicine, Boston, MA, United States; Liberian Institute for Biomedical Research, Charlesville, Liberia; United States Naval Medical Research Unit No. 3, Cairo, Egypt</t>
-  </si>
-  <si>
-    <t>Grubaugh, N.D., Department of Microbiology, Immunology, and Pathology, Colorado State University, Fort Collins, CO, United States; Sharma, S., Division of Computational Biomedicine, Boston University School of Medicine, Boston, MA, United States; Krajacich, B.J., Department of Microbiology, Immunology, and Pathology, Colorado State University, Fort Collins, CO, United States; Fakoli III, L.S., Liberian Institute for Biomedical Research, Charlesville, Liberia; Bolay, F.K., Liberian Institute for Biomedical Research, Charlesville, Liberia; Diclaro II, J.W., United States Naval Medical Research Unit No. 3, Cairo, Egypt; Johnson, W.E., Division of Computational Biomedicine, Boston University School of Medicine, Boston, MA, United States; Ebel, G.D., Department of Microbiology, Immunology, and Pathology, Colorado State University, Fort Collins, CO, United States; Foy, B.D., Department of Microbiology, Immunology, and Pathology, Colorado State University, Fort Collins, CO, United States; Brackney, D.E., Department of Microbiology, Immunology, and Pathology, Colorado State University, Fort Collins, CO, United States</t>
-  </si>
-  <si>
-    <t>Division of Vector-Borne Diseases, Centers for Disease Control and Prevention, 3150 Rampart Road, Fort Collins, CO  80521, United States; Department of Entomology, TAMU 2475, Texas AandM University, College Station, TX, United States</t>
-  </si>
-  <si>
-    <t>Komar, N., Division of Vector-Borne Diseases, Centers for Disease Control and Prevention, 3150 Rampart Road, Fort Collins, CO  80521, United States; Panella, N.A., Division of Vector-Borne Diseases, Centers for Disease Control and Prevention, 3150 Rampart Road, Fort Collins, CO  80521, United States; Golnar, A.J., Department of Entomology, TAMU 2475, Texas AandM University, College Station, TX, United States; Hamer, G.L., Department of Entomology, TAMU 2475, Texas AandM University, College Station, TX, United States</t>
-  </si>
-  <si>
-    <t>Arbovirus Research Unit, Ctr. for Vec.-Borne Disease Research, University of California, Davis, CA, United States; Arbovirus Field Station, 4705 Allen Road, Bakersfield, CA 93312, United States</t>
-  </si>
-  <si>
-    <t>Lothrop, H.D., Arbovirus Research Unit, Ctr. for Vec.-Borne Disease Research, University of California, Davis, CA, United States; Reisen, W.K., Arbovirus Research Unit, Ctr. for Vec.-Borne Disease Research, University of California, Davis, CA, United States, Arbovirus Field Station, 4705 Allen Road, Bakersfield, CA 93312, United States</t>
-  </si>
-  <si>
-    <t>Smithsonian Tropical Research Institute, Panama City, Panama; Centro de Biodiversidad Y Descubrimiento de Drogas, Instituto de Investigaciones Científicas Y Servicios de Alta Tecnología, Clayton, Panama; Programa Centroamericano de Maestría en Entomología, Vicerrectoría de Investigación Y Postgrado, Universidad de Panamá, Panama City, Panama</t>
-  </si>
-  <si>
-    <t>Navia-Gine, W.G., Smithsonian Tropical Research Institute, Panama City, Panama; Loaiza, J.R., Smithsonian Tropical Research Institute, Panama City, Panama, Centro de Biodiversidad Y Descubrimiento de Drogas, Instituto de Investigaciones Científicas Y Servicios de Alta Tecnología, Clayton, Panama, Programa Centroamericano de Maestría en Entomología, Vicerrectoría de Investigación Y Postgrado, Universidad de Panamá, Panama City, Panama; Miller, M.J., Smithsonian Tropical Research Institute, Panama City, Panama</t>
-  </si>
-  <si>
-    <t>Department of Entomology, Campus Box 7647, North Carolina State University, Raleigh, NC 27695-7647, United States; Division of Geographic Medicine, University of Alabama, Birmingham, AL 35294, United States</t>
-  </si>
-  <si>
-    <t>Richards, S.L., Department of Entomology, Campus Box 7647, North Carolina State University, Raleigh, NC 27695-7647, United States; Ponnusamy, L., Department of Entomology, Campus Box 7647, North Carolina State University, Raleigh, NC 27695-7647, United States; Unnasch, T.R., Division of Geographic Medicine, University of Alabama, Birmingham, AL 35294, United States; Hassan, H.K., Division of Geographic Medicine, University of Alabama, Birmingham, AL 35294, United States; Apperson, C.S., Department of Entomology, Campus Box 7647, North Carolina State University, Raleigh, NC 27695-7647, United States</t>
-  </si>
-  <si>
-    <t>Regional Medical Research Centre (Indian Council of Medical Research), Post Bag No.13, Port Blair, Andaman and Nicobar Islands  744 101, India</t>
-  </si>
-  <si>
-    <t>Sivan, A., Regional Medical Research Centre (Indian Council of Medical Research), Post Bag No.13, Port Blair, Andaman and Nicobar Islands  744 101, India; Shriram, A.N., Regional Medical Research Centre (Indian Council of Medical Research), Post Bag No.13, Port Blair, Andaman and Nicobar Islands  744 101, India; Sunish, I.P., Regional Medical Research Centre (Indian Council of Medical Research), Post Bag No.13, Port Blair, Andaman and Nicobar Islands  744 101, India; Vidhya, P.T., Regional Medical Research Centre (Indian Council of Medical Research), Post Bag No.13, Port Blair, Andaman and Nicobar Islands  744 101, India</t>
-  </si>
-  <si>
-    <t>Vector Borne Diseases Laboratory of the Applied Biology and Ecology Research Unit (VBID-URBEA), Department of Animal Biology, University of Dschang, P.O. Box 067, Dschang, Cameroon; Department of Microbiology and Parasitology, University of Buea, P.O. Box 63, Buea, Cameroon; Department of Animal Science, University of Dschang, P.O. Box 222, Dschang, Cameroon; Department of Entomology and Nematology, Mosquito Control Research Laboratory, University of California at Davis, 9240 South Riverbend Ave, Parlier, CA  93648, United States; Department of Biology, San Francisco State University, 1600 Holloway Ave, San Francisco, CA  94132, United States</t>
-  </si>
-  <si>
-    <t>Tchoumbou, M.A., Vector Borne Diseases Laboratory of the Applied Biology and Ecology Research Unit (VBID-URBEA), Department of Animal Biology, University of Dschang, P.O. Box 067, Dschang, Cameroon; Mayi, M.P.A., Vector Borne Diseases Laboratory of the Applied Biology and Ecology Research Unit (VBID-URBEA), Department of Animal Biology, University of Dschang, P.O. Box 067, Dschang, Cameroon; Malange, E.N.F., Department of Microbiology and Parasitology, University of Buea, P.O. Box 63, Buea, Cameroon; Foncha, F.D., Department of Microbiology and Parasitology, University of Buea, P.O. Box 63, Buea, Cameroon; Kowo, C., Department of Microbiology and Parasitology, University of Buea, P.O. Box 63, Buea, Cameroon; Fru-cho, J., Department of Microbiology and Parasitology, University of Buea, P.O. Box 63, Buea, Cameroon; Tchuinkam, T., Vector Borne Diseases Laboratory of the Applied Biology and Ecology Research Unit (VBID-URBEA), Department of Animal Biology, University of Dschang, P.O. Box 067, Dschang, Cameroon; Awah-Ndukum, J., Department of Animal Science, University of Dschang, P.O. Box 222, Dschang, Cameroon; Dorazio, R., Department of Biology, San Francisco State University, 1600 Holloway Ave, San Francisco, CA  94132, United States; Nota Anong, D., Department of Microbiology and Parasitology, University of Buea, P.O. Box 63, Buea, Cameroon; Cornel, A.J., Department of Entomology and Nematology, Mosquito Control Research Laboratory, University of California at Davis, 9240 South Riverbend Ave, Parlier, CA  93648, United States; Sehgal, R.N.M., Department of Biology, San Francisco State University, 1600 Holloway Ave, San Francisco, CA  94132, United States</t>
-  </si>
-  <si>
-    <t>Swiss Tropical and Public Health Institute, Basel, Switzerland; University of Basel, Basel, Switzerland; Centre Suisse de Recherches Scientifiques en Côte d’Ivoire, Abidjan, Cote d'Ivoire; Unité de Formation et de Recherche Biosciences, Université Félix Houphouët-Boigny, Abidjan, Cote d'Ivoire; Centre for Neglected Tropical Diseases, Liverpool School of Tropical Medicine, Liverpool, United Kingdom; Unité de Formation et de Recherche Sciences de la Nature, Université Nangui-Abrogoua, Abidjan, Cote d'Ivoire; Innovative Vector Control Consortium, Liverpool School of Tropical Medicine, Liverpool, United Kingdom</t>
-  </si>
-  <si>
-    <t>Zahouli, J.B.Z., Swiss Tropical and Public Health Institute, Basel, Switzerland, University of Basel, Basel, Switzerland, Centre Suisse de Recherches Scientifiques en Côte d’Ivoire, Abidjan, Cote d'Ivoire, Unité de Formation et de Recherche Biosciences, Université Félix Houphouët-Boigny, Abidjan, Cote d'Ivoire; Koudou, B.G., Centre Suisse de Recherches Scientifiques en Côte d’Ivoire, Abidjan, Cote d'Ivoire, Centre for Neglected Tropical Diseases, Liverpool School of Tropical Medicine, Liverpool, United Kingdom, Unité de Formation et de Recherche Sciences de la Nature, Université Nangui-Abrogoua, Abidjan, Cote d'Ivoire; Müller, P., Swiss Tropical and Public Health Institute, Basel, Switzerland, University of Basel, Basel, Switzerland; Malone, D., Innovative Vector Control Consortium, Liverpool School of Tropical Medicine, Liverpool, United Kingdom; Tano, Y., Unité de Formation et de Recherche Biosciences, Université Félix Houphouët-Boigny, Abidjan, Cote d'Ivoire, Unité de Formation et de Recherche Sciences de la Nature, Université Nangui-Abrogoua, Abidjan, Cote d'Ivoire; Utzinger, J., Swiss Tropical and Public Health Institute, Basel, Switzerland, University of Basel, Basel, Switzerland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2787,78 +2716,71 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3048,28 +2970,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X993"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="9.63"/>
-    <col customWidth="1" min="3" max="3" width="18.13"/>
-    <col customWidth="1" min="4" max="4" width="8.0"/>
-    <col customWidth="1" min="5" max="5" width="8.25"/>
-    <col customWidth="1" min="6" max="24" width="8.0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="24" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3121,7 +3045,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3132,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -3150,7 +3074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3161,7 +3085,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -3179,7 +3103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3114,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
@@ -3208,7 +3132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3219,7 +3143,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>33</v>
@@ -3237,7 +3161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3248,7 +3172,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>39</v>
@@ -3266,7 +3190,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3201,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>45</v>
@@ -3295,7 +3219,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3230,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="5">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>51</v>
@@ -3324,7 +3248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -3335,7 +3259,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="5">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>57</v>
@@ -3353,7 +3277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +3288,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="5">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>63</v>
@@ -3379,7 +3303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -3390,7 +3314,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="5">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>68</v>
@@ -3408,7 +3332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -3419,7 +3343,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="5">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>74</v>
@@ -3437,7 +3361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -3448,7 +3372,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="5">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>79</v>
@@ -3463,7 +3387,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -3474,7 +3398,7 @@
         <v>83</v>
       </c>
       <c r="D15" s="5">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>84</v>
@@ -3492,7 +3416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3427,7 @@
         <v>89</v>
       </c>
       <c r="D16" s="5">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>90</v>
@@ -3521,7 +3445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -3532,7 +3456,7 @@
         <v>95</v>
       </c>
       <c r="D17" s="5">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>96</v>
@@ -3550,7 +3474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -3561,7 +3485,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="5">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>102</v>
@@ -3579,7 +3503,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3514,7 @@
         <v>107</v>
       </c>
       <c r="D19" s="5">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>108</v>
@@ -3608,7 +3532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -3619,7 +3543,7 @@
         <v>113</v>
       </c>
       <c r="D20" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>114</v>
@@ -3637,7 +3561,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -3648,7 +3572,7 @@
         <v>119</v>
       </c>
       <c r="D21" s="5">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>120</v>
@@ -3666,7 +3590,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -3677,7 +3601,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>126</v>
@@ -3695,7 +3619,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -3706,7 +3630,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>132</v>
@@ -3724,7 +3648,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -3735,7 +3659,7 @@
         <v>137</v>
       </c>
       <c r="D24" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>138</v>
@@ -3753,7 +3677,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -3764,7 +3688,7 @@
         <v>143</v>
       </c>
       <c r="D25" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>144</v>
@@ -3782,7 +3706,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -3793,7 +3717,7 @@
         <v>147</v>
       </c>
       <c r="D26" s="5">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>144</v>
@@ -3811,7 +3735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -3822,7 +3746,7 @@
         <v>149</v>
       </c>
       <c r="D27" s="5">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>144</v>
@@ -3840,7 +3764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -3851,7 +3775,7 @@
         <v>151</v>
       </c>
       <c r="D28" s="5">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>144</v>
@@ -3869,7 +3793,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -3880,7 +3804,7 @@
         <v>153</v>
       </c>
       <c r="D29" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>144</v>
@@ -3898,7 +3822,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +3833,7 @@
         <v>155</v>
       </c>
       <c r="D30" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>144</v>
@@ -3927,7 +3851,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -3938,7 +3862,7 @@
         <v>157</v>
       </c>
       <c r="D31" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>144</v>
@@ -3956,7 +3880,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -3967,7 +3891,7 @@
         <v>159</v>
       </c>
       <c r="D32" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>144</v>
@@ -3985,7 +3909,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -3996,7 +3920,7 @@
         <v>162</v>
       </c>
       <c r="D33" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>144</v>
@@ -4014,7 +3938,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -4025,7 +3949,7 @@
         <v>164</v>
       </c>
       <c r="D34" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>144</v>
@@ -4043,7 +3967,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -4054,7 +3978,7 @@
         <v>166</v>
       </c>
       <c r="D35" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>144</v>
@@ -4072,7 +3996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -4083,7 +4007,7 @@
         <v>168</v>
       </c>
       <c r="D36" s="5">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>144</v>
@@ -4101,7 +4025,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -4112,7 +4036,7 @@
         <v>170</v>
       </c>
       <c r="D37" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>144</v>
@@ -4130,7 +4054,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -4141,7 +4065,7 @@
         <v>172</v>
       </c>
       <c r="D38" s="5">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>144</v>
@@ -4159,7 +4083,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -4170,7 +4094,7 @@
         <v>174</v>
       </c>
       <c r="D39" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>144</v>
@@ -4188,7 +4112,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -4199,7 +4123,7 @@
         <v>176</v>
       </c>
       <c r="D40" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>144</v>
@@ -4217,7 +4141,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -4228,7 +4152,7 @@
         <v>178</v>
       </c>
       <c r="D41" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>144</v>
@@ -4246,7 +4170,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -4257,7 +4181,7 @@
         <v>180</v>
       </c>
       <c r="D42" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>144</v>
@@ -4275,7 +4199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -4286,7 +4210,7 @@
         <v>182</v>
       </c>
       <c r="D43" s="5">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>144</v>
@@ -4304,7 +4228,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -4315,7 +4239,7 @@
         <v>184</v>
       </c>
       <c r="D44" s="5">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>144</v>
@@ -4333,7 +4257,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -4344,7 +4268,7 @@
         <v>186</v>
       </c>
       <c r="D45" s="5">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>144</v>
@@ -4362,7 +4286,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -4373,7 +4297,7 @@
         <v>188</v>
       </c>
       <c r="D46" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>144</v>
@@ -4391,7 +4315,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4326,7 @@
         <v>190</v>
       </c>
       <c r="D47" s="5">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>144</v>
@@ -4420,7 +4344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -4431,7 +4355,7 @@
         <v>192</v>
       </c>
       <c r="D48" s="5">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>144</v>
@@ -4449,7 +4373,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -4460,7 +4384,7 @@
         <v>194</v>
       </c>
       <c r="D49" s="5">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>144</v>
@@ -4478,7 +4402,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -4489,7 +4413,7 @@
         <v>196</v>
       </c>
       <c r="D50" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>144</v>
@@ -4507,7 +4431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +4442,7 @@
         <v>198</v>
       </c>
       <c r="D51" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>144</v>
@@ -4536,7 +4460,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -4547,7 +4471,7 @@
         <v>200</v>
       </c>
       <c r="D52" s="5">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>144</v>
@@ -4565,7 +4489,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -4576,7 +4500,7 @@
         <v>202</v>
       </c>
       <c r="D53" s="5">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>144</v>
@@ -4594,7 +4518,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -4605,7 +4529,7 @@
         <v>204</v>
       </c>
       <c r="D54" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>144</v>
@@ -4623,7 +4547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>205</v>
       </c>
@@ -4634,7 +4558,7 @@
         <v>207</v>
       </c>
       <c r="D55" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>208</v>
@@ -4652,7 +4576,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>212</v>
       </c>
@@ -4663,7 +4587,7 @@
         <v>214</v>
       </c>
       <c r="D56" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>215</v>
@@ -4681,7 +4605,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>219</v>
       </c>
@@ -4692,7 +4616,7 @@
         <v>221</v>
       </c>
       <c r="D57" s="5">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>132</v>
@@ -4710,7 +4634,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>225</v>
       </c>
@@ -4721,7 +4645,7 @@
         <v>227</v>
       </c>
       <c r="D58" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>228</v>
@@ -4739,7 +4663,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>219</v>
       </c>
@@ -4750,7 +4674,7 @@
         <v>233</v>
       </c>
       <c r="D59" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>208</v>
@@ -4768,7 +4692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>237</v>
       </c>
@@ -4779,7 +4703,7 @@
         <v>239</v>
       </c>
       <c r="D60" s="5">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>240</v>
@@ -4797,7 +4721,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>225</v>
       </c>
@@ -4808,7 +4732,7 @@
         <v>245</v>
       </c>
       <c r="D61" s="5">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>68</v>
@@ -4826,7 +4750,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>249</v>
       </c>
@@ -4837,7 +4761,7 @@
         <v>251</v>
       </c>
       <c r="D62" s="5">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>252</v>
@@ -4855,7 +4779,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>256</v>
       </c>
@@ -4866,7 +4790,7 @@
         <v>258</v>
       </c>
       <c r="D63" s="5">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>68</v>
@@ -4884,7 +4808,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>262</v>
       </c>
@@ -4895,7 +4819,7 @@
         <v>264</v>
       </c>
       <c r="D64" s="5">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>265</v>
@@ -4913,7 +4837,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>269</v>
       </c>
@@ -4924,7 +4848,7 @@
         <v>271</v>
       </c>
       <c r="D65" s="5">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>272</v>
@@ -4942,7 +4866,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>225</v>
       </c>
@@ -4953,7 +4877,7 @@
         <v>277</v>
       </c>
       <c r="D66" s="5">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>215</v>
@@ -4971,7 +4895,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>225</v>
       </c>
@@ -4982,7 +4906,7 @@
         <v>282</v>
       </c>
       <c r="D67" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>283</v>
@@ -5000,7 +4924,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>225</v>
       </c>
@@ -5011,7 +4935,7 @@
         <v>288</v>
       </c>
       <c r="D68" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>208</v>
@@ -5029,7 +4953,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>269</v>
       </c>
@@ -5040,7 +4964,7 @@
         <v>293</v>
       </c>
       <c r="D69" s="5">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>144</v>
@@ -5058,7 +4982,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>295</v>
       </c>
@@ -5069,7 +4993,7 @@
         <v>297</v>
       </c>
       <c r="D70" s="5">
-        <v>1996.0</v>
+        <v>1996</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>144</v>
@@ -5087,7 +5011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>225</v>
       </c>
@@ -5098,7 +5022,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="5">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>144</v>
@@ -5116,7 +5040,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>225</v>
       </c>
@@ -5127,7 +5051,7 @@
         <v>303</v>
       </c>
       <c r="D72" s="13">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>304</v>
@@ -5145,7 +5069,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>225</v>
       </c>
@@ -5156,7 +5080,7 @@
         <v>309</v>
       </c>
       <c r="D73" s="13">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>310</v>
@@ -5174,7 +5098,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
@@ -5185,7 +5109,7 @@
         <v>315</v>
       </c>
       <c r="D74" s="13">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>316</v>
@@ -5203,7 +5127,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>11</v>
       </c>
@@ -5214,7 +5138,7 @@
         <v>321</v>
       </c>
       <c r="D75" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>228</v>
@@ -5232,7 +5156,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +5167,7 @@
         <v>326</v>
       </c>
       <c r="D76" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>68</v>
@@ -5261,7 +5185,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
@@ -5272,7 +5196,7 @@
         <v>331</v>
       </c>
       <c r="D77" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>57</v>
@@ -5290,7 +5214,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5225,7 @@
         <v>336</v>
       </c>
       <c r="D78" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>208</v>
@@ -5319,7 +5243,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>11</v>
       </c>
@@ -5330,7 +5254,7 @@
         <v>341</v>
       </c>
       <c r="D79" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>208</v>
@@ -5348,7 +5272,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>345</v>
       </c>
@@ -5359,7 +5283,7 @@
         <v>347</v>
       </c>
       <c r="D80" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>132</v>
@@ -5377,7 +5301,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>351</v>
       </c>
@@ -5388,7 +5312,7 @@
         <v>353</v>
       </c>
       <c r="D81" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>57</v>
@@ -5406,7 +5330,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>357</v>
       </c>
@@ -5417,7 +5341,7 @@
         <v>359</v>
       </c>
       <c r="D82" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>360</v>
@@ -5435,7 +5359,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>364</v>
       </c>
@@ -5446,7 +5370,7 @@
         <v>366</v>
       </c>
       <c r="D83" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>68</v>
@@ -5464,7 +5388,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
@@ -5475,7 +5399,7 @@
         <v>371</v>
       </c>
       <c r="D84" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>372</v>
@@ -5493,9 +5417,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>376</v>
@@ -5504,7 +5428,7 @@
         <v>377</v>
       </c>
       <c r="D85" s="13">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>378</v>
@@ -5522,7 +5446,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
@@ -5533,7 +5457,7 @@
         <v>383</v>
       </c>
       <c r="D86" s="13">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>208</v>
@@ -5551,7 +5475,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>387</v>
       </c>
@@ -5562,7 +5486,7 @@
         <v>389</v>
       </c>
       <c r="D87" s="13">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>132</v>
@@ -5580,7 +5504,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>393</v>
       </c>
@@ -5591,7 +5515,7 @@
         <v>395</v>
       </c>
       <c r="D88" s="13">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>68</v>
@@ -5609,7 +5533,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>11</v>
       </c>
@@ -5620,7 +5544,7 @@
         <v>400</v>
       </c>
       <c r="D89" s="13">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>401</v>
@@ -5638,7 +5562,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>351</v>
       </c>
@@ -5649,7 +5573,7 @@
         <v>406</v>
       </c>
       <c r="D90" s="13">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>14</v>
@@ -5667,7 +5591,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>410</v>
       </c>
@@ -5678,7 +5602,7 @@
         <v>412</v>
       </c>
       <c r="D91" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>413</v>
@@ -5696,7 +5620,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>417</v>
       </c>
@@ -5707,7 +5631,7 @@
         <v>419</v>
       </c>
       <c r="D92" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>215</v>
@@ -5725,7 +5649,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>423</v>
       </c>
@@ -5736,7 +5660,7 @@
         <v>425</v>
       </c>
       <c r="D93" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>208</v>
@@ -5754,7 +5678,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>11</v>
       </c>
@@ -5765,7 +5689,7 @@
         <v>430</v>
       </c>
       <c r="D94" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>431</v>
@@ -5783,7 +5707,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>11</v>
       </c>
@@ -5794,7 +5718,7 @@
         <v>436</v>
       </c>
       <c r="D95" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>208</v>
@@ -5812,7 +5736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>11</v>
       </c>
@@ -5823,7 +5747,7 @@
         <v>441</v>
       </c>
       <c r="D96" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>132</v>
@@ -5841,7 +5765,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>11</v>
       </c>
@@ -5852,7 +5776,7 @@
         <v>446</v>
       </c>
       <c r="D97" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>114</v>
@@ -5870,7 +5794,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
@@ -5881,7 +5805,7 @@
         <v>162</v>
       </c>
       <c r="D98" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>57</v>
@@ -5899,7 +5823,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>11</v>
       </c>
@@ -5910,7 +5834,7 @@
         <v>455</v>
       </c>
       <c r="D99" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>456</v>
@@ -5928,7 +5852,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>225</v>
       </c>
@@ -5939,7 +5863,7 @@
         <v>461</v>
       </c>
       <c r="D100" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>265</v>
@@ -5957,7 +5881,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>11</v>
       </c>
@@ -5968,7 +5892,7 @@
         <v>466</v>
       </c>
       <c r="D101" s="13">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>208</v>
@@ -5986,7 +5910,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
@@ -5997,7 +5921,7 @@
         <v>471</v>
       </c>
       <c r="D102" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>472</v>
@@ -6015,7 +5939,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>11</v>
       </c>
@@ -6026,7 +5950,7 @@
         <v>477</v>
       </c>
       <c r="D103" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>265</v>
@@ -6044,7 +5968,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
@@ -6055,7 +5979,7 @@
         <v>482</v>
       </c>
       <c r="D104" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>208</v>
@@ -6073,7 +5997,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>11</v>
       </c>
@@ -6084,7 +6008,7 @@
         <v>486</v>
       </c>
       <c r="D105" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>208</v>
@@ -6102,7 +6026,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -6113,7 +6037,7 @@
         <v>491</v>
       </c>
       <c r="D106" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>208</v>
@@ -6131,7 +6055,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>11</v>
       </c>
@@ -6142,7 +6066,7 @@
         <v>496</v>
       </c>
       <c r="D107" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>57</v>
@@ -6160,7 +6084,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
@@ -6171,7 +6095,7 @@
         <v>501</v>
       </c>
       <c r="D108" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>215</v>
@@ -6189,7 +6113,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>11</v>
       </c>
@@ -6200,7 +6124,7 @@
         <v>506</v>
       </c>
       <c r="D109" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>507</v>
@@ -6218,7 +6142,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>11</v>
       </c>
@@ -6229,7 +6153,7 @@
         <v>512</v>
       </c>
       <c r="D110" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>513</v>
@@ -6247,7 +6171,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>11</v>
       </c>
@@ -6258,7 +6182,7 @@
         <v>518</v>
       </c>
       <c r="D111" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>208</v>
@@ -6276,7 +6200,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>11</v>
       </c>
@@ -6287,7 +6211,7 @@
         <v>523</v>
       </c>
       <c r="D112" s="13">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>68</v>
@@ -6305,7 +6229,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>11</v>
       </c>
@@ -6316,7 +6240,7 @@
         <v>528</v>
       </c>
       <c r="D113" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>529</v>
@@ -6334,7 +6258,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>11</v>
       </c>
@@ -6345,7 +6269,7 @@
         <v>534</v>
       </c>
       <c r="D114" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>535</v>
@@ -6363,7 +6287,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>11</v>
       </c>
@@ -6374,7 +6298,7 @@
         <v>540</v>
       </c>
       <c r="D115" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>208</v>
@@ -6392,7 +6316,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>11</v>
       </c>
@@ -6403,7 +6327,7 @@
         <v>545</v>
       </c>
       <c r="D116" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>546</v>
@@ -6421,7 +6345,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>11</v>
       </c>
@@ -6432,7 +6356,7 @@
         <v>551</v>
       </c>
       <c r="D117" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>552</v>
@@ -6450,7 +6374,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>225</v>
       </c>
@@ -6461,7 +6385,7 @@
         <v>557</v>
       </c>
       <c r="D118" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>558</v>
@@ -6479,7 +6403,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>225</v>
       </c>
@@ -6490,7 +6414,7 @@
         <v>563</v>
       </c>
       <c r="D119" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>68</v>
@@ -6508,7 +6432,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>11</v>
       </c>
@@ -6519,7 +6443,7 @@
         <v>568</v>
       </c>
       <c r="D120" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>68</v>
@@ -6537,7 +6461,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>11</v>
       </c>
@@ -6548,7 +6472,7 @@
         <v>573</v>
       </c>
       <c r="D121" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>574</v>
@@ -6566,7 +6490,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>11</v>
       </c>
@@ -6577,7 +6501,7 @@
         <v>579</v>
       </c>
       <c r="D122" s="13">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>580</v>
@@ -6595,7 +6519,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>11</v>
       </c>
@@ -6606,7 +6530,7 @@
         <v>585</v>
       </c>
       <c r="D123" s="13">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>265</v>
@@ -6624,7 +6548,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>11</v>
       </c>
@@ -6635,7 +6559,7 @@
         <v>590</v>
       </c>
       <c r="D124" s="13">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>208</v>
@@ -6653,7 +6577,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
@@ -6664,11 +6588,12 @@
         <v>595</v>
       </c>
       <c r="D125" s="13">
-        <v>2014.0</v>
-      </c>
-      <c r="E125" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E125" s="22" t="s">
         <v>596</v>
       </c>
+      <c r="F125" s="23"/>
       <c r="G125" s="14" t="s">
         <v>597</v>
       </c>
@@ -6679,7 +6604,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>11</v>
       </c>
@@ -6690,7 +6615,7 @@
         <v>600</v>
       </c>
       <c r="D126" s="13">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>601</v>
@@ -6708,7 +6633,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>225</v>
       </c>
@@ -6719,7 +6644,7 @@
         <v>606</v>
       </c>
       <c r="D127" s="13">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>607</v>
@@ -6737,9 +6662,9 @@
         <v>610</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="B128" s="15" t="s">
         <v>611</v>
@@ -6748,7 +6673,7 @@
         <v>612</v>
       </c>
       <c r="D128" s="13">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>265</v>
@@ -6766,7 +6691,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>11</v>
       </c>
@@ -6777,7 +6702,7 @@
         <v>617</v>
       </c>
       <c r="D129" s="13">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>574</v>
@@ -6795,7 +6720,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>11</v>
       </c>
@@ -6806,7 +6731,7 @@
         <v>622</v>
       </c>
       <c r="D130" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>623</v>
@@ -6824,7 +6749,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>225</v>
       </c>
@@ -6835,7 +6760,7 @@
         <v>628</v>
       </c>
       <c r="D131" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>601</v>
@@ -6853,7 +6778,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>11</v>
       </c>
@@ -6864,7 +6789,7 @@
         <v>633</v>
       </c>
       <c r="D132" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>208</v>
@@ -6882,7 +6807,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>11</v>
       </c>
@@ -6893,7 +6818,7 @@
         <v>638</v>
       </c>
       <c r="D133" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>132</v>
@@ -6911,7 +6836,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>11</v>
       </c>
@@ -6922,7 +6847,7 @@
         <v>643</v>
       </c>
       <c r="D134" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>644</v>
@@ -6940,7 +6865,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>11</v>
       </c>
@@ -6951,7 +6876,7 @@
         <v>649</v>
       </c>
       <c r="D135" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>265</v>
@@ -6969,7 +6894,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>11</v>
       </c>
@@ -6980,7 +6905,7 @@
         <v>178</v>
       </c>
       <c r="D136" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>265</v>
@@ -6998,7 +6923,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>225</v>
       </c>
@@ -7009,7 +6934,7 @@
         <v>658</v>
       </c>
       <c r="D137" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>57</v>
@@ -7027,7 +6952,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>225</v>
       </c>
@@ -7038,7 +6963,7 @@
         <v>663</v>
       </c>
       <c r="D138" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>607</v>
@@ -7056,7 +6981,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>11</v>
       </c>
@@ -7067,7 +6992,7 @@
         <v>668</v>
       </c>
       <c r="D139" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>265</v>
@@ -7085,7 +7010,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>11</v>
       </c>
@@ -7096,7 +7021,7 @@
         <v>673</v>
       </c>
       <c r="D140" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>265</v>
@@ -7114,7 +7039,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>11</v>
       </c>
@@ -7125,7 +7050,7 @@
         <v>678</v>
       </c>
       <c r="D141" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>372</v>
@@ -7143,7 +7068,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>11</v>
       </c>
@@ -7154,7 +7079,7 @@
         <v>683</v>
       </c>
       <c r="D142" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>684</v>
@@ -7172,7 +7097,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7108,7 @@
         <v>689</v>
       </c>
       <c r="D143" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>215</v>
@@ -7201,7 +7126,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>225</v>
       </c>
@@ -7212,7 +7137,7 @@
         <v>694</v>
       </c>
       <c r="D144" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>68</v>
@@ -7230,7 +7155,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>11</v>
       </c>
@@ -7241,7 +7166,7 @@
         <v>699</v>
       </c>
       <c r="D145" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>372</v>
@@ -7259,7 +7184,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>11</v>
       </c>
@@ -7270,7 +7195,7 @@
         <v>704</v>
       </c>
       <c r="D146" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>132</v>
@@ -7288,7 +7213,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>11</v>
       </c>
@@ -7299,7 +7224,7 @@
         <v>709</v>
       </c>
       <c r="D147" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>710</v>
@@ -7317,7 +7242,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>11</v>
       </c>
@@ -7328,7 +7253,7 @@
         <v>715</v>
       </c>
       <c r="D148" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>716</v>
@@ -7346,7 +7271,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>11</v>
       </c>
@@ -7357,11 +7282,12 @@
         <v>721</v>
       </c>
       <c r="D149" s="13">
-        <v>2011.0</v>
-      </c>
-      <c r="E149" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E149" s="22" t="s">
         <v>722</v>
       </c>
+      <c r="F149" s="23"/>
       <c r="G149" s="14" t="s">
         <v>723</v>
       </c>
@@ -7372,7 +7298,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>11</v>
       </c>
@@ -7383,7 +7309,7 @@
         <v>725</v>
       </c>
       <c r="D150" s="13">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>726</v>
@@ -7401,7 +7327,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +7338,7 @@
         <v>731</v>
       </c>
       <c r="D151" s="13">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>215</v>
@@ -7430,7 +7356,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>735</v>
       </c>
@@ -7441,7 +7367,7 @@
         <v>737</v>
       </c>
       <c r="D152" s="13">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>68</v>
@@ -7459,7 +7385,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>11</v>
       </c>
@@ -7470,7 +7396,7 @@
         <v>742</v>
       </c>
       <c r="D153" s="13">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>743</v>
@@ -7488,7 +7414,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>225</v>
       </c>
@@ -7499,7 +7425,7 @@
         <v>748</v>
       </c>
       <c r="D154" s="13">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>215</v>
@@ -7517,7 +7443,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>11</v>
       </c>
@@ -7528,11 +7454,12 @@
         <v>752</v>
       </c>
       <c r="D155" s="13">
-        <v>2011.0</v>
-      </c>
-      <c r="E155" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E155" s="22" t="s">
         <v>753</v>
       </c>
+      <c r="F155" s="23"/>
       <c r="G155" s="14" t="s">
         <v>754</v>
       </c>
@@ -7543,7 +7470,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>11</v>
       </c>
@@ -7554,7 +7481,7 @@
         <v>757</v>
       </c>
       <c r="D156" s="13">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>574</v>
@@ -7572,7 +7499,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>11</v>
       </c>
@@ -7583,11 +7510,12 @@
         <v>762</v>
       </c>
       <c r="D157" s="13">
-        <v>2010.0</v>
-      </c>
-      <c r="E157" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E157" s="22" t="s">
         <v>763</v>
       </c>
+      <c r="F157" s="23"/>
       <c r="G157" s="14" t="s">
         <v>764</v>
       </c>
@@ -7598,7 +7526,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>11</v>
       </c>
@@ -7609,7 +7537,7 @@
         <v>767</v>
       </c>
       <c r="D158" s="13">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>507</v>
@@ -7627,7 +7555,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>11</v>
       </c>
@@ -7638,7 +7566,7 @@
         <v>772</v>
       </c>
       <c r="D159" s="13">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>208</v>
@@ -7656,7 +7584,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>225</v>
       </c>
@@ -7667,7 +7595,7 @@
         <v>777</v>
       </c>
       <c r="D160" s="18">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="E160" s="19" t="s">
         <v>778</v>
@@ -7676,7 +7604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>11</v>
       </c>
@@ -7687,7 +7615,7 @@
         <v>780</v>
       </c>
       <c r="D161" s="13">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>781</v>
@@ -7699,7 +7627,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>11</v>
       </c>
@@ -7710,7 +7638,7 @@
         <v>785</v>
       </c>
       <c r="D162" s="13">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>786</v>
@@ -7722,7 +7650,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>11</v>
       </c>
@@ -7733,7 +7661,7 @@
         <v>785</v>
       </c>
       <c r="D163" s="13">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>786</v>
@@ -7745,7 +7673,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>11</v>
       </c>
@@ -7756,7 +7684,7 @@
         <v>790</v>
       </c>
       <c r="D164" s="13">
-        <v>1988.0</v>
+        <v>1988</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>786</v>
@@ -7768,18 +7696,18 @@
         <v>783</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B165" s="12" t="s">
+    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="21" t="s">
         <v>792</v>
       </c>
       <c r="D165" s="13">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>786</v>
@@ -7791,7 +7719,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>11</v>
       </c>
@@ -7802,7 +7730,7 @@
         <v>795</v>
       </c>
       <c r="D166" s="13">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>786</v>
@@ -7814,7 +7742,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>11</v>
       </c>
@@ -7825,7 +7753,7 @@
         <v>798</v>
       </c>
       <c r="D167" s="13">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>786</v>
@@ -7837,7 +7765,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>11</v>
       </c>
@@ -7848,7 +7776,7 @@
         <v>801</v>
       </c>
       <c r="D168" s="13">
-        <v>1996.0</v>
+        <v>1996</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>786</v>
@@ -7860,7 +7788,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>11</v>
       </c>
@@ -7871,7 +7799,7 @@
         <v>804</v>
       </c>
       <c r="D169" s="13">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>805</v>
@@ -7883,7 +7811,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>11</v>
       </c>
@@ -7894,7 +7822,7 @@
         <v>808</v>
       </c>
       <c r="D170" s="13">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>805</v>
@@ -7906,7 +7834,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>11</v>
       </c>
@@ -7917,7 +7845,7 @@
         <v>811</v>
       </c>
       <c r="D171" s="13">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>786</v>
@@ -7929,7 +7857,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>11</v>
       </c>
@@ -7940,7 +7868,7 @@
         <v>814</v>
       </c>
       <c r="D172" s="13">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>805</v>
@@ -7952,7 +7880,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>11</v>
       </c>
@@ -7963,7 +7891,7 @@
         <v>817</v>
       </c>
       <c r="D173" s="13">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>805</v>
@@ -7975,7 +7903,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>11</v>
       </c>
@@ -7986,7 +7914,7 @@
         <v>820</v>
       </c>
       <c r="D174" s="13">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>805</v>
@@ -8001,7 +7929,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>11</v>
       </c>
@@ -8012,7 +7940,7 @@
         <v>824</v>
       </c>
       <c r="D175" s="13">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>825</v>
@@ -8024,7 +7952,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>11</v>
       </c>
@@ -8035,7 +7963,7 @@
         <v>828</v>
       </c>
       <c r="D176" s="13">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>829</v>
@@ -8047,7 +7975,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>11</v>
       </c>
@@ -8058,7 +7986,7 @@
         <v>832</v>
       </c>
       <c r="D177" s="13">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>833</v>
@@ -8070,7 +7998,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>11</v>
       </c>
@@ -8081,7 +8009,7 @@
         <v>832</v>
       </c>
       <c r="D178" s="13">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>833</v>
@@ -8093,7 +8021,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>11</v>
       </c>
@@ -8104,7 +8032,7 @@
         <v>837</v>
       </c>
       <c r="D179" s="13">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>838</v>
@@ -8116,7 +8044,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>11</v>
       </c>
@@ -8127,7 +8055,7 @@
         <v>841</v>
       </c>
       <c r="D180" s="13">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>786</v>
@@ -8139,7 +8067,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>11</v>
       </c>
@@ -8150,7 +8078,7 @@
         <v>844</v>
       </c>
       <c r="D181" s="13">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>845</v>
@@ -8162,7 +8090,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>11</v>
       </c>
@@ -8173,7 +8101,7 @@
         <v>848</v>
       </c>
       <c r="D182" s="13">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>829</v>
@@ -8185,7 +8113,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>225</v>
       </c>
@@ -8196,7 +8124,7 @@
         <v>851</v>
       </c>
       <c r="D183" s="13">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>845</v>
@@ -8208,7 +8136,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>11</v>
       </c>
@@ -8219,7 +8147,7 @@
         <v>854</v>
       </c>
       <c r="D184" s="13">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>805</v>
@@ -8231,7 +8159,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>11</v>
       </c>
@@ -8242,7 +8170,7 @@
         <v>857</v>
       </c>
       <c r="D185" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>805</v>
@@ -8254,7 +8182,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>11</v>
       </c>
@@ -8265,7 +8193,7 @@
         <v>860</v>
       </c>
       <c r="D186" s="13">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>805</v>
@@ -8277,7 +8205,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>11</v>
       </c>
@@ -8288,7 +8216,7 @@
         <v>863</v>
       </c>
       <c r="D187" s="13">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>864</v>
@@ -8300,7 +8228,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>225</v>
       </c>
@@ -8311,7 +8239,7 @@
         <v>867</v>
       </c>
       <c r="D188" s="13">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>868</v>
@@ -8329,817 +8257,817 @@
         <v>871</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="13"/>
       <c r="E189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E125:F125"/>
@@ -9148,1730 +9076,124 @@
     <mergeCell ref="E157:F157"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G72"/>
-    <hyperlink r:id="rId2" ref="G73"/>
-    <hyperlink r:id="rId3" ref="G74"/>
-    <hyperlink r:id="rId4" ref="G75"/>
-    <hyperlink r:id="rId5" ref="G76"/>
-    <hyperlink r:id="rId6" ref="G77"/>
-    <hyperlink r:id="rId7" ref="G78"/>
-    <hyperlink r:id="rId8" ref="G79"/>
-    <hyperlink r:id="rId9" ref="G80"/>
-    <hyperlink r:id="rId10" ref="G81"/>
-    <hyperlink r:id="rId11" ref="G82"/>
-    <hyperlink r:id="rId12" ref="G83"/>
-    <hyperlink r:id="rId13" ref="G84"/>
-    <hyperlink r:id="rId14" ref="G85"/>
-    <hyperlink r:id="rId15" ref="G86"/>
-    <hyperlink r:id="rId16" ref="G87"/>
-    <hyperlink r:id="rId17" ref="G88"/>
-    <hyperlink r:id="rId18" ref="G89"/>
-    <hyperlink r:id="rId19" ref="G90"/>
-    <hyperlink r:id="rId20" ref="G91"/>
-    <hyperlink r:id="rId21" ref="G92"/>
-    <hyperlink r:id="rId22" ref="G93"/>
-    <hyperlink r:id="rId23" ref="G94"/>
-    <hyperlink r:id="rId24" ref="G95"/>
-    <hyperlink r:id="rId25" ref="G96"/>
-    <hyperlink r:id="rId26" ref="G97"/>
-    <hyperlink r:id="rId27" ref="G98"/>
-    <hyperlink r:id="rId28" ref="G99"/>
-    <hyperlink r:id="rId29" ref="G100"/>
-    <hyperlink r:id="rId30" ref="G101"/>
-    <hyperlink r:id="rId31" ref="G102"/>
-    <hyperlink r:id="rId32" ref="G103"/>
-    <hyperlink r:id="rId33" ref="G104"/>
-    <hyperlink r:id="rId34" ref="G105"/>
-    <hyperlink r:id="rId35" ref="G106"/>
-    <hyperlink r:id="rId36" ref="G107"/>
-    <hyperlink r:id="rId37" ref="G108"/>
-    <hyperlink r:id="rId38" ref="G109"/>
-    <hyperlink r:id="rId39" ref="G110"/>
-    <hyperlink r:id="rId40" ref="G111"/>
-    <hyperlink r:id="rId41" ref="G112"/>
-    <hyperlink r:id="rId42" ref="G113"/>
-    <hyperlink r:id="rId43" ref="G114"/>
-    <hyperlink r:id="rId44" ref="G115"/>
-    <hyperlink r:id="rId45" ref="G116"/>
-    <hyperlink r:id="rId46" ref="G117"/>
-    <hyperlink r:id="rId47" ref="G118"/>
-    <hyperlink r:id="rId48" ref="G119"/>
-    <hyperlink r:id="rId49" ref="G120"/>
-    <hyperlink r:id="rId50" ref="G121"/>
-    <hyperlink r:id="rId51" ref="G122"/>
-    <hyperlink r:id="rId52" ref="G123"/>
-    <hyperlink r:id="rId53" ref="G124"/>
-    <hyperlink r:id="rId54" ref="G125"/>
-    <hyperlink r:id="rId55" ref="G126"/>
-    <hyperlink r:id="rId56" ref="G127"/>
-    <hyperlink r:id="rId57" ref="G128"/>
-    <hyperlink r:id="rId58" ref="G129"/>
-    <hyperlink r:id="rId59" ref="G130"/>
-    <hyperlink r:id="rId60" ref="G131"/>
-    <hyperlink r:id="rId61" ref="G132"/>
-    <hyperlink r:id="rId62" ref="G133"/>
-    <hyperlink r:id="rId63" ref="G134"/>
-    <hyperlink r:id="rId64" ref="G135"/>
-    <hyperlink r:id="rId65" ref="G136"/>
-    <hyperlink r:id="rId66" ref="G137"/>
-    <hyperlink r:id="rId67" ref="G138"/>
-    <hyperlink r:id="rId68" ref="G139"/>
-    <hyperlink r:id="rId69" ref="G140"/>
-    <hyperlink r:id="rId70" ref="G141"/>
-    <hyperlink r:id="rId71" ref="G142"/>
-    <hyperlink r:id="rId72" ref="G143"/>
-    <hyperlink r:id="rId73" ref="G144"/>
-    <hyperlink r:id="rId74" ref="G145"/>
-    <hyperlink r:id="rId75" ref="G146"/>
-    <hyperlink r:id="rId76" ref="G147"/>
-    <hyperlink r:id="rId77" ref="G148"/>
-    <hyperlink r:id="rId78" ref="G149"/>
-    <hyperlink r:id="rId79" ref="G150"/>
-    <hyperlink r:id="rId80" ref="G151"/>
-    <hyperlink r:id="rId81" ref="G152"/>
-    <hyperlink r:id="rId82" ref="G153"/>
-    <hyperlink r:id="rId83" ref="G154"/>
-    <hyperlink r:id="rId84" ref="G155"/>
-    <hyperlink r:id="rId85" ref="G156"/>
-    <hyperlink r:id="rId86" ref="G157"/>
-    <hyperlink r:id="rId87" ref="G158"/>
-    <hyperlink r:id="rId88" ref="G159"/>
-    <hyperlink r:id="rId89" ref="G161"/>
-    <hyperlink r:id="rId90" ref="G162"/>
-    <hyperlink r:id="rId91" ref="G163"/>
-    <hyperlink r:id="rId92" ref="G164"/>
-    <hyperlink r:id="rId93" ref="G165"/>
-    <hyperlink r:id="rId94" ref="G166"/>
-    <hyperlink r:id="rId95" ref="G167"/>
-    <hyperlink r:id="rId96" ref="G168"/>
-    <hyperlink r:id="rId97" ref="G169"/>
-    <hyperlink r:id="rId98" ref="G170"/>
-    <hyperlink r:id="rId99" ref="G171"/>
-    <hyperlink r:id="rId100" ref="G172"/>
-    <hyperlink r:id="rId101" ref="G173"/>
-    <hyperlink r:id="rId102" ref="G174"/>
-    <hyperlink r:id="rId103" ref="G175"/>
-    <hyperlink r:id="rId104" ref="G176"/>
-    <hyperlink r:id="rId105" ref="G177"/>
-    <hyperlink r:id="rId106" ref="G178"/>
-    <hyperlink r:id="rId107" ref="G179"/>
-    <hyperlink r:id="rId108" ref="G180"/>
-    <hyperlink r:id="rId109" ref="G181"/>
-    <hyperlink r:id="rId110" ref="G182"/>
-    <hyperlink r:id="rId111" ref="G183"/>
-    <hyperlink r:id="rId112" ref="G184"/>
-    <hyperlink r:id="rId113" ref="G185"/>
-    <hyperlink r:id="rId114" ref="G186"/>
-    <hyperlink r:id="rId115" ref="G187"/>
-    <hyperlink r:id="rId116" ref="G188"/>
+    <hyperlink ref="G72" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G73" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G74" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G75" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G76" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G77" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G78" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G79" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G80" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G81" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G82" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G83" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G84" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G85" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G86" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G87" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G88" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G89" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G90" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G91" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G92" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G93" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G94" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G95" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G96" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G97" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G98" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G99" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G100" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G101" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G102" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G103" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G104" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G105" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G106" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G107" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G108" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G109" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G110" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G111" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G112" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G113" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G114" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G115" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G116" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G117" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G118" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G119" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G120" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G121" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G122" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G123" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G124" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G125" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G126" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G127" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G128" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G129" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G130" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G131" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G132" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G133" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G134" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G135" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G136" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G137" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G138" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G139" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G140" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G141" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G142" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G143" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G144" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G145" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G146" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G147" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G148" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G149" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G150" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G151" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G152" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G153" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G154" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G155" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G156" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G157" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G158" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G159" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G161" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G162" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G163" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G164" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G165" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G166" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G167" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G168" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G169" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G170" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G171" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G172" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="G173" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G174" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G175" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G176" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="G177" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G178" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G179" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G180" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G181" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G182" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G183" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G184" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G185" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G186" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G187" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="G188" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId117"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="26" width="9.38"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2002.0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2001.0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2006.0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1996.0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2020.0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>